--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139322.156810274</v>
+        <v>1135464.002763894</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4134901.530723316</v>
+        <v>4134901.530723315</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4770341286055</v>
+        <v>144.2865884362351</v>
       </c>
       <c r="H11" t="n">
         <v>266.7106435996681</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>225.3306834275053</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.87040842116371</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T12" t="n">
         <v>124.7645818372411</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6020161941874</v>
+        <v>229.5467264565335</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>213.3652429912015</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>150.5604159046063</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>167.0300428870574</v>
       </c>
       <c r="G14" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.87040842116371</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T15" t="n">
         <v>124.7645818372411</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>90.64314127424923</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>6.695317954232063</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>63.46081636216127</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.4770341286055</v>
+        <v>338.9556222582651</v>
       </c>
       <c r="H17" t="n">
         <v>266.7106435996681</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.87040842116371</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T18" t="n">
         <v>124.7645818372411</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.74511964022983</v>
+        <v>163.4879474515712</v>
       </c>
       <c r="U19" t="n">
         <v>275.6020161941874</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>351.8483120443469</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.36371861119833</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>147.6445500555159</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H21" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T21" t="n">
         <v>124.7645818372411</v>
@@ -2241,16 +2241,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>101.8659698534419</v>
       </c>
       <c r="G22" t="n">
         <v>163.0800288950615</v>
@@ -2259,7 +2259,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.05114379168072</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T22" t="n">
         <v>239.7660459136613</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>39.60248780642583</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>157.0717085191386</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4770341286055</v>
+        <v>319.6310322204622</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2414,7 +2414,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H24" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T24" t="n">
         <v>124.7645818372411</v>
@@ -2496,7 +2496,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I25" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7428278113419</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T25" t="n">
         <v>239.7660459136613</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6020161941877</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>396.4349276048498</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T26" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>113.5079396702121</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H27" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T27" t="n">
         <v>124.7645818372411</v>
@@ -2733,7 +2733,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I28" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>284.7212049110271</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>358.9947508316604</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H30" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T30" t="n">
         <v>124.7645818372411</v>
@@ -2970,7 +2970,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I31" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6020161941873</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>193.6139154063449</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>377.804760133589</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3125,7 +3125,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H33" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T33" t="n">
         <v>124.7645818372411</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317975</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3207,7 +3207,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I34" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>261.2036854933388</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>213.5678093181678</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H36" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T36" t="n">
         <v>124.7645818372411</v>
@@ -3435,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>97.52270106034092</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6020161941874</v>
+        <v>274.8707507752659</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>24.09709775096212</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>195.645985175117</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H39" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T39" t="n">
         <v>124.7645818372411</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>97.52270106034004</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>162.348763476141</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U40" t="n">
         <v>275.6020161941874</v>
@@ -3745,16 +3745,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>341.8478609771676</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>266.7106435996681</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T41" t="n">
         <v>209.5194549705165</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>266.4104895172736</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H42" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T42" t="n">
         <v>124.7645818372411</v>
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.66188503577236</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0800288950615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>131.7199579586033</v>
       </c>
       <c r="T43" t="n">
         <v>239.7660459136613</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.3524576478488</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>175.4124246496725</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H45" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T45" t="n">
         <v>124.7645818372411</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>101.865969853442</v>
       </c>
       <c r="D46" t="n">
-        <v>86.80193043297251</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T46" t="n">
         <v>239.7660459136613</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1144.721244059687</v>
+        <v>1329.135993954677</v>
       </c>
       <c r="C11" t="n">
-        <v>1144.721244059687</v>
+        <v>890.9935211381003</v>
       </c>
       <c r="D11" t="n">
-        <v>1144.721244059687</v>
+        <v>890.9935211381003</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.721244059687</v>
+        <v>890.9935211381003</v>
       </c>
       <c r="F11" t="n">
-        <v>716.8538144688943</v>
+        <v>463.126091547308</v>
       </c>
       <c r="G11" t="n">
         <v>317.3820628238382</v>
       </c>
       <c r="H11" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I11" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J11" t="n">
-        <v>280.5668724472631</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K11" t="n">
         <v>520.6958462790549</v>
@@ -5053,7 +5053,7 @@
         <v>1150.069584980171</v>
       </c>
       <c r="N11" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O11" t="n">
         <v>1804.970433130815</v>
@@ -5062,31 +5062,31 @@
         <v>2076.43134995307</v>
       </c>
       <c r="Q11" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R11" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S11" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T11" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U11" t="n">
-        <v>2139.800399651701</v>
+        <v>2100.039067721197</v>
       </c>
       <c r="V11" t="n">
-        <v>1777.183449585527</v>
+        <v>1737.422117655024</v>
       </c>
       <c r="W11" t="n">
-        <v>1372.327994996561</v>
+        <v>1737.422117655024</v>
       </c>
       <c r="X11" t="n">
-        <v>1144.721244059687</v>
+        <v>1737.422117655024</v>
       </c>
       <c r="Y11" t="n">
-        <v>1144.721244059687</v>
+        <v>1329.135993954677</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H12" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I12" t="n">
-        <v>82.75272404474126</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J12" t="n">
         <v>178.1789471685047</v>
@@ -5129,7 +5129,7 @@
         <v>560.5837766791823</v>
       </c>
       <c r="M12" t="n">
-        <v>816.5037854930633</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N12" t="n">
         <v>1079.197235426495</v>
@@ -5138,7 +5138,7 @@
         <v>1319.510420784407</v>
       </c>
       <c r="P12" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.159390801712</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>567.0041416234046</v>
+        <v>1029.830104712534</v>
       </c>
       <c r="C13" t="n">
-        <v>394.4424301066296</v>
+        <v>857.2683931957589</v>
       </c>
       <c r="D13" t="n">
-        <v>394.4424301066296</v>
+        <v>691.3904003972816</v>
       </c>
       <c r="E13" t="n">
-        <v>224.6844263573668</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="F13" t="n">
-        <v>47.977372319123</v>
+        <v>344.925342609775</v>
       </c>
       <c r="G13" t="n">
-        <v>47.977372319123</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H13" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I13" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J13" t="n">
-        <v>194.4244032063442</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K13" t="n">
-        <v>567.5632973215135</v>
+        <v>379.1548843764027</v>
       </c>
       <c r="L13" t="n">
-        <v>796.339068109504</v>
+        <v>505.0479757929228</v>
       </c>
       <c r="M13" t="n">
-        <v>929.0756814943062</v>
+        <v>1097.268456358638</v>
       </c>
       <c r="N13" t="n">
-        <v>1500.914918051381</v>
+        <v>1669.107692915713</v>
       </c>
       <c r="O13" t="n">
-        <v>2040.272670722439</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P13" t="n">
-        <v>2142.686862247778</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q13" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R13" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.683941399239</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T13" t="n">
         <v>2012.496016233924</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.110141290301</v>
+        <v>1780.630635974799</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.154633160731</v>
+        <v>1493.67512784523</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.634185694871</v>
+        <v>1221.648723431521</v>
       </c>
       <c r="X13" t="n">
-        <v>986.2424310282836</v>
+        <v>1221.648723431521</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.8227603423918</v>
+        <v>1221.648723431521</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1734.944945062734</v>
+        <v>1524.521589840392</v>
       </c>
       <c r="C14" t="n">
-        <v>1296.802472246158</v>
+        <v>1086.379117023815</v>
       </c>
       <c r="D14" t="n">
-        <v>1296.802472246158</v>
+        <v>650.4693321982595</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.721244059687</v>
+        <v>216.6945873565547</v>
       </c>
       <c r="F14" t="n">
-        <v>716.8538144688943</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G14" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H14" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I14" t="n">
-        <v>120.3463876521524</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J14" t="n">
-        <v>280.566872447263</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K14" t="n">
         <v>520.6958462790549</v>
       </c>
       <c r="L14" t="n">
-        <v>818.5970719737414</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M14" t="n">
         <v>1150.069584980171</v>
@@ -5299,31 +5299,31 @@
         <v>2076.43134995307</v>
       </c>
       <c r="Q14" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R14" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S14" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T14" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U14" t="n">
-        <v>2139.800399651701</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V14" t="n">
-        <v>2139.800399651701</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W14" t="n">
-        <v>1734.944945062734</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="X14" t="n">
-        <v>1734.944945062734</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1734.944945062734</v>
+        <v>1950.821160325299</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H15" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I15" t="n">
-        <v>82.75272404474126</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J15" t="n">
         <v>178.1789471685047</v>
@@ -5366,19 +5366,19 @@
         <v>560.5837766791823</v>
       </c>
       <c r="M15" t="n">
-        <v>816.5037854930633</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N15" t="n">
-        <v>1079.197235426495</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O15" t="n">
-        <v>1319.510420784407</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P15" t="n">
-        <v>1512.382938418798</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.313108689166</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R15" t="n">
         <v>1676.870203416725</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.9463162176586</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C16" t="n">
-        <v>919.9463162176586</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D16" t="n">
-        <v>754.0683234191813</v>
+        <v>316.2431549172145</v>
       </c>
       <c r="E16" t="n">
-        <v>584.3103196699185</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F16" t="n">
-        <v>407.6032656316747</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8759637174712</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H16" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I16" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J16" t="n">
-        <v>194.4244032063442</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K16" t="n">
-        <v>567.5632973215135</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L16" t="n">
         <v>1111.666270505995</v>
       </c>
       <c r="M16" t="n">
-        <v>1443.49683990739</v>
+        <v>1244.402883890797</v>
       </c>
       <c r="N16" t="n">
-        <v>1573.077273306821</v>
+        <v>1373.983317290227</v>
       </c>
       <c r="O16" t="n">
-        <v>1692.765776752098</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P16" t="n">
-        <v>2142.686862247778</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q16" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R16" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S16" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T16" t="n">
         <v>2156.680690790835</v>
       </c>
       <c r="U16" t="n">
-        <v>1878.294815847212</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V16" t="n">
         <v>1591.339307717642</v>
       </c>
       <c r="W16" t="n">
-        <v>1584.576360289125</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X16" t="n">
-        <v>1339.184605622537</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.764934936646</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1208.82307876894</v>
+        <v>1531.67869690461</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.82307876894</v>
+        <v>1093.536224088033</v>
       </c>
       <c r="D17" t="n">
-        <v>1208.82307876894</v>
+        <v>1093.536224088033</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.721244059687</v>
+        <v>659.7614792463282</v>
       </c>
       <c r="F17" t="n">
-        <v>716.8538144688943</v>
+        <v>659.7614792463282</v>
       </c>
       <c r="G17" t="n">
         <v>317.3820628238382</v>
       </c>
       <c r="H17" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I17" t="n">
         <v>120.3463876521526</v>
       </c>
       <c r="J17" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K17" t="n">
-        <v>520.695846279055</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L17" t="n">
-        <v>818.5970719737415</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M17" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N17" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O17" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P17" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R17" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S17" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T17" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U17" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V17" t="n">
-        <v>2036.251665889976</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W17" t="n">
-        <v>2036.251665889976</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="X17" t="n">
-        <v>1617.109202469287</v>
+        <v>1939.964820604956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1208.82307876894</v>
+        <v>1531.67869690461</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G18" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H18" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I18" t="n">
-        <v>55.59900615728628</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J18" t="n">
-        <v>151.0252292810497</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K18" t="n">
-        <v>314.1238438647551</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L18" t="n">
-        <v>533.4300587917272</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M18" t="n">
-        <v>789.3500676056083</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N18" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O18" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P18" t="n">
         <v>1485.229220531343</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>731.7314435376081</v>
+        <v>731.731443537608</v>
       </c>
       <c r="C19" t="n">
-        <v>559.1697320208331</v>
+        <v>559.169732020833</v>
       </c>
       <c r="D19" t="n">
-        <v>559.1697320208331</v>
+        <v>559.169732020833</v>
       </c>
       <c r="E19" t="n">
         <v>389.4117282715703</v>
@@ -5664,61 +5664,61 @@
         <v>212.7046742333265</v>
       </c>
       <c r="G19" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H19" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I19" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J19" t="n">
-        <v>194.4244032063442</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K19" t="n">
-        <v>403.2038057660869</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L19" t="n">
-        <v>947.3067789505681</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M19" t="n">
-        <v>1539.527259516283</v>
+        <v>1443.49683990739</v>
       </c>
       <c r="N19" t="n">
-        <v>1669.107692915714</v>
+        <v>1573.07727330682</v>
       </c>
       <c r="O19" t="n">
-        <v>2208.465445586772</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q19" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.683941399239</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T19" t="n">
         <v>2233.729275095976</v>
       </c>
       <c r="U19" t="n">
-        <v>1955.343400152353</v>
+        <v>1955.343400152352</v>
       </c>
       <c r="V19" t="n">
         <v>1668.387892022783</v>
       </c>
       <c r="W19" t="n">
-        <v>1396.361487609075</v>
+        <v>1396.361487609074</v>
       </c>
       <c r="X19" t="n">
         <v>1150.969732942487</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.5500622565953</v>
+        <v>923.5500622565951</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1972.569045471242</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C20" t="n">
-        <v>1534.426572654666</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D20" t="n">
-        <v>1534.426572654666</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E20" t="n">
-        <v>1100.651827812961</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F20" t="n">
-        <v>672.7843982221684</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G20" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H20" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I20" t="n">
-        <v>120.3463876521523</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5668724472629</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K20" t="n">
-        <v>520.6958462790548</v>
+        <v>520.695846279055</v>
       </c>
       <c r="L20" t="n">
-        <v>818.5970719737413</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M20" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N20" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O20" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P20" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R20" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S20" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T20" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U20" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V20" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W20" t="n">
-        <v>2398.86861595615</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="X20" t="n">
-        <v>2398.86861595615</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="Y20" t="n">
-        <v>2398.86861595615</v>
+        <v>2209.97137487866</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G21" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H21" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I21" t="n">
-        <v>55.59900615728618</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J21" t="n">
-        <v>151.0252292810496</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K21" t="n">
-        <v>314.123843864755</v>
+        <v>341.2775617522099</v>
       </c>
       <c r="L21" t="n">
-        <v>533.4300587917272</v>
+        <v>560.5837766791821</v>
       </c>
       <c r="M21" t="n">
-        <v>789.3500676056083</v>
+        <v>816.5037854930629</v>
       </c>
       <c r="N21" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O21" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P21" t="n">
         <v>1485.229220531343</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>860.0721009632712</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="C22" t="n">
-        <v>687.5103894464961</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="D22" t="n">
-        <v>521.6323966480188</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="E22" t="n">
-        <v>521.6323966480188</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="F22" t="n">
-        <v>344.925342609775</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G22" t="n">
-        <v>180.1980406955714</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H22" t="n">
-        <v>47.977372319123</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I22" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J22" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K22" t="n">
-        <v>206.225157585688</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L22" t="n">
-        <v>505.0479757929232</v>
+        <v>693.4563887380334</v>
       </c>
       <c r="M22" t="n">
-        <v>1097.268456358639</v>
+        <v>1285.676869303749</v>
       </c>
       <c r="N22" t="n">
-        <v>1669.107692915714</v>
+        <v>1857.516105860823</v>
       </c>
       <c r="O22" t="n">
-        <v>2208.465445586772</v>
+        <v>1977.2046093061</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q22" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R22" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S22" t="n">
-        <v>2398.86861595615</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T22" t="n">
-        <v>2156.680690790835</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U22" t="n">
-        <v>1878.294815847212</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V22" t="n">
-        <v>1591.339307717642</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W22" t="n">
-        <v>1319.312903303934</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X22" t="n">
-        <v>1279.31039036815</v>
+        <v>929.7364740804344</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.890719682258</v>
+        <v>702.3168033945426</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>887.3898578015284</v>
+        <v>2118.40918479843</v>
       </c>
       <c r="C23" t="n">
-        <v>887.3898578015284</v>
+        <v>1680.266711981854</v>
       </c>
       <c r="D23" t="n">
-        <v>887.3898578015284</v>
+        <v>1244.356927156298</v>
       </c>
       <c r="E23" t="n">
-        <v>887.3898578015284</v>
+        <v>810.5821823145934</v>
       </c>
       <c r="F23" t="n">
-        <v>728.731566368055</v>
+        <v>382.7147527238012</v>
       </c>
       <c r="G23" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H23" t="n">
         <v>59.85512421828376</v>
@@ -5989,28 +5989,28 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J23" t="n">
-        <v>705.3004026522444</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K23" t="n">
-        <v>945.4293764840363</v>
+        <v>967.8282856311333</v>
       </c>
       <c r="L23" t="n">
-        <v>1243.330602178723</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M23" t="n">
-        <v>1574.803115185153</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N23" t="n">
-        <v>1911.639199995869</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O23" t="n">
-        <v>2229.703963335797</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P23" t="n">
-        <v>2501.164880158052</v>
+        <v>2523.563789305148</v>
       </c>
       <c r="Q23" t="n">
-        <v>2705.020723424291</v>
+        <v>2727.419632571387</v>
       </c>
       <c r="R23" t="n">
         <v>2992.756210914188</v>
@@ -6019,22 +6019,22 @@
         <v>2952.994878983685</v>
       </c>
       <c r="T23" t="n">
-        <v>2741.359065882153</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="U23" t="n">
-        <v>2482.290849577705</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="V23" t="n">
-        <v>2119.673899511531</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="W23" t="n">
-        <v>1714.818444922564</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="X23" t="n">
-        <v>1295.675981501875</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="Y23" t="n">
-        <v>887.3898578015284</v>
+        <v>2544.708755283338</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I24" t="n">
-        <v>67.47675805644727</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J24" t="n">
-        <v>162.9029811802107</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K24" t="n">
-        <v>326.0015957639161</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3078106908883</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2278195047694</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N24" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O24" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P24" t="n">
         <v>1497.106972430504</v>
@@ -6126,13 +6126,13 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C25" t="n">
-        <v>931.8240681168191</v>
+        <v>931.824068116819</v>
       </c>
       <c r="D25" t="n">
-        <v>765.9460753183421</v>
+        <v>765.9460753183419</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1880715690793</v>
+        <v>596.1880715690791</v>
       </c>
       <c r="F25" t="n">
         <v>419.4810175308355</v>
@@ -6156,13 +6156,13 @@
         <v>1123.544022405155</v>
       </c>
       <c r="M25" t="n">
-        <v>1256.280635789957</v>
+        <v>1522.963276452344</v>
       </c>
       <c r="N25" t="n">
-        <v>1747.295619039077</v>
+        <v>2094.802513009419</v>
       </c>
       <c r="O25" t="n">
-        <v>2286.653371710135</v>
+        <v>2634.160265680477</v>
       </c>
       <c r="P25" t="n">
         <v>2736.574457205816</v>
@@ -6186,7 +6186,7 @@
         <v>2041.042228118769</v>
       </c>
       <c r="W25" t="n">
-        <v>1769.015823705061</v>
+        <v>1769.01582370506</v>
       </c>
       <c r="X25" t="n">
         <v>1523.624069038473</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1295.675981501875</v>
+        <v>1795.549556292913</v>
       </c>
       <c r="C26" t="n">
-        <v>895.2366606888953</v>
+        <v>1357.407083476336</v>
       </c>
       <c r="D26" t="n">
-        <v>459.3268758633398</v>
+        <v>921.4972986507809</v>
       </c>
       <c r="E26" t="n">
-        <v>459.3268758633398</v>
+        <v>487.722553809076</v>
       </c>
       <c r="F26" t="n">
-        <v>459.3268758633398</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G26" t="n">
         <v>59.85512421828376</v>
@@ -6226,28 +6226,28 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J26" t="n">
-        <v>705.3004026522444</v>
+        <v>292.4446243464238</v>
       </c>
       <c r="K26" t="n">
-        <v>945.4293764840363</v>
+        <v>645.3371958580876</v>
       </c>
       <c r="L26" t="n">
-        <v>1243.330602178723</v>
+        <v>943.2384215527741</v>
       </c>
       <c r="M26" t="n">
-        <v>1574.803115185153</v>
+        <v>1274.710934559203</v>
       </c>
       <c r="N26" t="n">
-        <v>1911.639199995869</v>
+        <v>1611.54701936992</v>
       </c>
       <c r="O26" t="n">
-        <v>2229.703963335797</v>
+        <v>1929.611782709847</v>
       </c>
       <c r="P26" t="n">
-        <v>2501.164880158052</v>
+        <v>2670.318944911109</v>
       </c>
       <c r="Q26" t="n">
-        <v>2705.020723424291</v>
+        <v>2874.174788177348</v>
       </c>
       <c r="R26" t="n">
         <v>2992.756210914188</v>
@@ -6259,19 +6259,19 @@
         <v>2741.359065882153</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.290849577705</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.673899511531</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.818444922564</v>
+        <v>2336.503611293187</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.675981501875</v>
+        <v>2336.503611293187</v>
       </c>
       <c r="Y26" t="n">
-        <v>1295.675981501875</v>
+        <v>2221.849126777821</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I27" t="n">
-        <v>67.47675805644727</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J27" t="n">
-        <v>162.9029811802107</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K27" t="n">
-        <v>326.0015957639161</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3078106908883</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M27" t="n">
-        <v>801.2278195047694</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O27" t="n">
         <v>1304.234454796113</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.385779633594</v>
+        <v>1104.385779633595</v>
       </c>
       <c r="C28" t="n">
-        <v>931.8240681168191</v>
+        <v>931.8240681168195</v>
       </c>
       <c r="D28" t="n">
-        <v>765.9460753183421</v>
+        <v>765.9460753183423</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1880715690793</v>
+        <v>596.1880715690795</v>
       </c>
       <c r="F28" t="n">
-        <v>419.4810175308355</v>
+        <v>419.4810175308357</v>
       </c>
       <c r="G28" t="n">
-        <v>254.753715616632</v>
+        <v>254.7537156166318</v>
       </c>
       <c r="H28" t="n">
-        <v>122.5330472401835</v>
+        <v>122.5330472401833</v>
       </c>
       <c r="I28" t="n">
         <v>59.85512421828376</v>
@@ -6393,10 +6393,10 @@
         <v>1123.544022405155</v>
       </c>
       <c r="M28" t="n">
-        <v>1715.764502970871</v>
+        <v>1256.280635789957</v>
       </c>
       <c r="N28" t="n">
-        <v>1845.344936370301</v>
+        <v>1747.295619039077</v>
       </c>
       <c r="O28" t="n">
         <v>2286.653371710135</v>
@@ -6426,10 +6426,10 @@
         <v>1769.015823705061</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.204398352581</v>
+        <v>1296.204398352582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1600.648784026336</v>
+        <v>1795.549556292913</v>
       </c>
       <c r="C29" t="n">
-        <v>1162.50631120976</v>
+        <v>1357.407083476336</v>
       </c>
       <c r="D29" t="n">
-        <v>1162.50631120976</v>
+        <v>921.4972986507809</v>
       </c>
       <c r="E29" t="n">
-        <v>728.731566368055</v>
+        <v>487.722553809076</v>
       </c>
       <c r="F29" t="n">
-        <v>728.731566368055</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G29" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H29" t="n">
         <v>59.85512421828376</v>
@@ -6463,28 +6463,28 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J29" t="n">
-        <v>705.300402652244</v>
+        <v>292.4446243464238</v>
       </c>
       <c r="K29" t="n">
-        <v>945.4293764840359</v>
+        <v>1033.151786547685</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.330602178723</v>
+        <v>1331.053012242372</v>
       </c>
       <c r="M29" t="n">
-        <v>1574.803115185152</v>
+        <v>1662.525525248801</v>
       </c>
       <c r="N29" t="n">
-        <v>1911.639199995869</v>
+        <v>1999.361610059518</v>
       </c>
       <c r="O29" t="n">
-        <v>2229.703963335796</v>
+        <v>2317.426373399445</v>
       </c>
       <c r="P29" t="n">
-        <v>2501.164880158052</v>
+        <v>2588.8872902217</v>
       </c>
       <c r="Q29" t="n">
-        <v>2705.020723424291</v>
+        <v>2874.174788177348</v>
       </c>
       <c r="R29" t="n">
         <v>2992.756210914188</v>
@@ -6496,19 +6496,19 @@
         <v>2992.756210914188</v>
       </c>
       <c r="U29" t="n">
-        <v>2733.687994609739</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="V29" t="n">
-        <v>2446.090817931934</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="W29" t="n">
-        <v>2446.090817931934</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.948354511244</v>
+        <v>2630.135250478168</v>
       </c>
       <c r="Y29" t="n">
-        <v>2026.948354511244</v>
+        <v>2221.849126777821</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I30" t="n">
-        <v>67.47675805644727</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J30" t="n">
-        <v>162.9029811802107</v>
+        <v>162.9029811802111</v>
       </c>
       <c r="K30" t="n">
-        <v>326.0015957639161</v>
+        <v>326.0015957639164</v>
       </c>
       <c r="L30" t="n">
-        <v>545.3078106908883</v>
+        <v>545.3078106908886</v>
       </c>
       <c r="M30" t="n">
-        <v>801.2278195047694</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N30" t="n">
         <v>1063.921269438201</v>
@@ -6600,19 +6600,19 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C31" t="n">
-        <v>931.8240681168191</v>
+        <v>931.8240681168194</v>
       </c>
       <c r="D31" t="n">
-        <v>765.9460753183419</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1880715690791</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F31" t="n">
-        <v>419.4810175308353</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G31" t="n">
-        <v>254.7537156166318</v>
+        <v>254.753715616632</v>
       </c>
       <c r="H31" t="n">
         <v>122.5330472401835</v>
@@ -6621,25 +6621,25 @@
         <v>59.85512421828376</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3021551055049</v>
+        <v>119.722469940815</v>
       </c>
       <c r="K31" t="n">
-        <v>386.6398227021472</v>
+        <v>218.1029094848487</v>
       </c>
       <c r="L31" t="n">
-        <v>930.7427958866284</v>
+        <v>762.2058826693299</v>
       </c>
       <c r="M31" t="n">
-        <v>1522.963276452344</v>
+        <v>1354.426363235045</v>
       </c>
       <c r="N31" t="n">
-        <v>2094.802513009419</v>
+        <v>1926.26559979212</v>
       </c>
       <c r="O31" t="n">
-        <v>2634.160265680477</v>
+        <v>2286.653371710135</v>
       </c>
       <c r="P31" t="n">
-        <v>2736.574457205815</v>
+        <v>2736.574457205816</v>
       </c>
       <c r="Q31" t="n">
         <v>2975.673509741517</v>
@@ -6651,7 +6651,7 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T31" t="n">
-        <v>2606.383611191962</v>
+        <v>2606.383611191963</v>
       </c>
       <c r="U31" t="n">
         <v>2327.997736248339</v>
@@ -6666,7 +6666,7 @@
         <v>1523.624069038473</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.204398352581</v>
+        <v>1296.204398352582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2026.283525626108</v>
+        <v>1357.407083476336</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.283525626108</v>
+        <v>1357.407083476336</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.373740800552</v>
+        <v>921.4972986507809</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.598995958847</v>
+        <v>487.722553809076</v>
       </c>
       <c r="F32" t="n">
-        <v>728.731566368055</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G32" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H32" t="n">
-        <v>59.85512421828378</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="I32" t="n">
         <v>132.2241395513133</v>
       </c>
       <c r="J32" t="n">
-        <v>727.6993117993418</v>
+        <v>705.3004026522451</v>
       </c>
       <c r="K32" t="n">
-        <v>967.8282856311336</v>
+        <v>945.4293764840369</v>
       </c>
       <c r="L32" t="n">
-        <v>1265.72951132582</v>
+        <v>1243.330602178723</v>
       </c>
       <c r="M32" t="n">
-        <v>1597.20202433225</v>
+        <v>1574.803115185153</v>
       </c>
       <c r="N32" t="n">
-        <v>1934.038109142967</v>
+        <v>1911.639199995869</v>
       </c>
       <c r="O32" t="n">
-        <v>2252.102872482894</v>
+        <v>2229.703963335797</v>
       </c>
       <c r="P32" t="n">
-        <v>2523.563789305149</v>
+        <v>2501.164880158052</v>
       </c>
       <c r="Q32" t="n">
-        <v>2727.419632571389</v>
+        <v>2705.020723424291</v>
       </c>
       <c r="R32" t="n">
-        <v>2992.756210914189</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="S32" t="n">
-        <v>2992.756210914189</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="T32" t="n">
-        <v>2797.186599392628</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="U32" t="n">
-        <v>2797.186599392628</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="V32" t="n">
-        <v>2434.569649326455</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="W32" t="n">
-        <v>2434.569649326455</v>
+        <v>2611.13524108228</v>
       </c>
       <c r="X32" t="n">
-        <v>2434.569649326455</v>
+        <v>2191.992777661591</v>
       </c>
       <c r="Y32" t="n">
-        <v>2026.283525626108</v>
+        <v>1783.706653961244</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>175.9924418923906</v>
       </c>
       <c r="G33" t="n">
-        <v>91.63789566784082</v>
+        <v>91.63789566784081</v>
       </c>
       <c r="H33" t="n">
-        <v>59.85512421828378</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="I33" t="n">
-        <v>94.63047594390204</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J33" t="n">
-        <v>162.9029811802107</v>
+        <v>162.9029811802111</v>
       </c>
       <c r="K33" t="n">
-        <v>326.0015957639161</v>
+        <v>326.0015957639164</v>
       </c>
       <c r="L33" t="n">
-        <v>545.3078106908883</v>
+        <v>545.3078106908886</v>
       </c>
       <c r="M33" t="n">
-        <v>801.2278195047694</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N33" t="n">
         <v>1063.921269438201</v>
@@ -6834,58 +6834,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C34" t="n">
-        <v>931.8240681168195</v>
+        <v>931.8240681168194</v>
       </c>
       <c r="D34" t="n">
-        <v>765.9460753183422</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1880715690795</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F34" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G34" t="n">
-        <v>254.7537156166322</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H34" t="n">
         <v>122.5330472401835</v>
       </c>
       <c r="I34" t="n">
-        <v>59.85512421828378</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="J34" t="n">
-        <v>206.3021551055049</v>
+        <v>119.722469940815</v>
       </c>
       <c r="K34" t="n">
-        <v>579.4410492206741</v>
+        <v>218.1029094848487</v>
       </c>
       <c r="L34" t="n">
-        <v>1123.544022405155</v>
+        <v>751.4286767806201</v>
       </c>
       <c r="M34" t="n">
-        <v>1617.715185639648</v>
+        <v>1343.649157346335</v>
       </c>
       <c r="N34" t="n">
-        <v>1747.295619039078</v>
+        <v>1915.48839390341</v>
       </c>
       <c r="O34" t="n">
-        <v>2286.653371710136</v>
+        <v>2454.846146574468</v>
       </c>
       <c r="P34" t="n">
-        <v>2736.574457205817</v>
+        <v>2904.767232070148</v>
       </c>
       <c r="Q34" t="n">
-        <v>2975.673509741518</v>
+        <v>2975.673509741517</v>
       </c>
       <c r="R34" t="n">
-        <v>2992.756210914189</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="S34" t="n">
-        <v>2848.571536357278</v>
+        <v>2848.571536357277</v>
       </c>
       <c r="T34" t="n">
         <v>2606.383611191963</v>
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2183.143556038809</v>
+        <v>311.8194788780511</v>
       </c>
       <c r="C35" t="n">
-        <v>1745.001083222232</v>
+        <v>311.8194788780511</v>
       </c>
       <c r="D35" t="n">
-        <v>1309.091298396676</v>
+        <v>311.8194788780511</v>
       </c>
       <c r="E35" t="n">
-        <v>875.3165535549713</v>
+        <v>311.8194788780511</v>
       </c>
       <c r="F35" t="n">
-        <v>447.449123964179</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G35" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H35" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I35" t="n">
         <v>120.3463876521525</v>
       </c>
       <c r="J35" t="n">
-        <v>280.5668724472629</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K35" t="n">
         <v>520.6958462790548</v>
@@ -6949,40 +6949,40 @@
         <v>1150.069584980171</v>
       </c>
       <c r="N35" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O35" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P35" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R35" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S35" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T35" t="n">
-        <v>2398.86861595615</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="U35" t="n">
-        <v>2398.86861595615</v>
+        <v>1928.164586550168</v>
       </c>
       <c r="V35" t="n">
-        <v>2398.86861595615</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="W35" t="n">
-        <v>2183.143556038809</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="X35" t="n">
-        <v>2183.143556038809</v>
+        <v>1146.405173063305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2183.143556038809</v>
+        <v>738.1190493629589</v>
       </c>
     </row>
     <row r="36">
@@ -7007,28 +7007,28 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G36" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H36" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I36" t="n">
-        <v>82.75272404474126</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J36" t="n">
-        <v>178.1789471685047</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K36" t="n">
-        <v>341.2775617522101</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L36" t="n">
-        <v>560.5837766791824</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M36" t="n">
-        <v>816.5037854930633</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N36" t="n">
-        <v>1079.197235426495</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O36" t="n">
         <v>1319.510420784407</v>
@@ -7037,7 +7037,7 @@
         <v>1512.382938418798</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R36" t="n">
         <v>1676.870203416725</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>654.6828592324673</v>
+        <v>897.6094363360853</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1211477156922</v>
+        <v>725.0477248193102</v>
       </c>
       <c r="D37" t="n">
-        <v>316.243154917215</v>
+        <v>559.169732020833</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4851511679522</v>
+        <v>389.4117282715703</v>
       </c>
       <c r="F37" t="n">
-        <v>47.977372319123</v>
+        <v>212.7046742333265</v>
       </c>
       <c r="G37" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H37" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I37" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J37" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K37" t="n">
-        <v>206.225157585688</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L37" t="n">
-        <v>750.3281307701692</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.548611335885</v>
+        <v>1244.402883890797</v>
       </c>
       <c r="N37" t="n">
-        <v>1914.38784789296</v>
+        <v>1373.983317290227</v>
       </c>
       <c r="O37" t="n">
-        <v>2208.465445586772</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P37" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q37" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R37" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S37" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T37" t="n">
-        <v>2156.680690790835</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U37" t="n">
-        <v>1878.294815847212</v>
+        <v>2121.22139295083</v>
       </c>
       <c r="V37" t="n">
-        <v>1591.339307717642</v>
+        <v>1834.26588482126</v>
       </c>
       <c r="W37" t="n">
-        <v>1319.312903303934</v>
+        <v>1562.239480407552</v>
       </c>
       <c r="X37" t="n">
-        <v>1073.921148637346</v>
+        <v>1316.847725740964</v>
       </c>
       <c r="Y37" t="n">
-        <v>846.5014779514545</v>
+        <v>1089.428055055072</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1553.426582050553</v>
+        <v>1144.721244059687</v>
       </c>
       <c r="C38" t="n">
-        <v>1115.284109233976</v>
+        <v>1144.721244059687</v>
       </c>
       <c r="D38" t="n">
-        <v>679.3743244084208</v>
+        <v>1144.721244059687</v>
       </c>
       <c r="E38" t="n">
-        <v>245.5995795667159</v>
+        <v>1144.721244059687</v>
       </c>
       <c r="F38" t="n">
-        <v>47.977372319123</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="G38" t="n">
-        <v>47.977372319123</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H38" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I38" t="n">
-        <v>120.3463876521521</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J38" t="n">
-        <v>280.5668724472627</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K38" t="n">
-        <v>520.6958462790546</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L38" t="n">
-        <v>818.5970719737414</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M38" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N38" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O38" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P38" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q38" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R38" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S38" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T38" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U38" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V38" t="n">
-        <v>2398.86861595615</v>
+        <v>1996.490333959472</v>
       </c>
       <c r="W38" t="n">
-        <v>2398.86861595615</v>
+        <v>1996.490333959472</v>
       </c>
       <c r="X38" t="n">
-        <v>1979.726152535461</v>
+        <v>1577.347870538783</v>
       </c>
       <c r="Y38" t="n">
-        <v>1979.726152535461</v>
+        <v>1169.061746838436</v>
       </c>
     </row>
     <row r="39">
@@ -7244,28 +7244,28 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G39" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H39" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I39" t="n">
-        <v>82.75272404474126</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J39" t="n">
-        <v>178.1789471685047</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K39" t="n">
-        <v>341.2775617522101</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L39" t="n">
-        <v>560.5837766791824</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M39" t="n">
-        <v>816.5037854930633</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N39" t="n">
-        <v>1079.197235426495</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O39" t="n">
         <v>1319.510420784407</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.8821344218819</v>
+        <v>654.6828592324664</v>
       </c>
       <c r="C40" t="n">
-        <v>560.3204229051069</v>
+        <v>482.1211477156913</v>
       </c>
       <c r="D40" t="n">
-        <v>394.4424301066296</v>
+        <v>316.243154917214</v>
       </c>
       <c r="E40" t="n">
-        <v>224.6844263573668</v>
+        <v>146.4851511679513</v>
       </c>
       <c r="F40" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G40" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H40" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I40" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J40" t="n">
-        <v>107.8447180416543</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K40" t="n">
-        <v>206.225157585688</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L40" t="n">
-        <v>750.3281307701692</v>
+        <v>750.3281307701691</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.548611335885</v>
+        <v>1342.548611335884</v>
       </c>
       <c r="N40" t="n">
-        <v>1914.38784789296</v>
+        <v>1914.387847892959</v>
       </c>
       <c r="O40" t="n">
-        <v>2208.465445586772</v>
+        <v>2034.076351338236</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.87963711211</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q40" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S40" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T40" t="n">
-        <v>2234.87996598025</v>
+        <v>2156.680690790834</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.494091036626</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.538582907057</v>
+        <v>1591.339307717641</v>
       </c>
       <c r="W40" t="n">
-        <v>1397.512178493348</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X40" t="n">
-        <v>1152.120423826761</v>
+        <v>1073.921148637345</v>
       </c>
       <c r="Y40" t="n">
-        <v>924.700753140869</v>
+        <v>846.5014779514536</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1928.16458655017</v>
+        <v>1619.301750056763</v>
       </c>
       <c r="C41" t="n">
-        <v>1490.022113733593</v>
+        <v>1181.159277240186</v>
       </c>
       <c r="D41" t="n">
-        <v>1490.022113733593</v>
+        <v>745.2494924146305</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.721244059687</v>
+        <v>745.2494924146305</v>
       </c>
       <c r="F41" t="n">
-        <v>716.8538144688943</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="G41" t="n">
         <v>317.3820628238382</v>
       </c>
       <c r="H41" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I41" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J41" t="n">
-        <v>280.5668724472631</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K41" t="n">
-        <v>520.695846279055</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L41" t="n">
-        <v>818.5970719737415</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M41" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N41" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O41" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P41" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q41" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R41" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S41" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T41" t="n">
-        <v>2187.232802854619</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="U41" t="n">
-        <v>1928.16458655017</v>
+        <v>1888.403254619665</v>
       </c>
       <c r="V41" t="n">
-        <v>1928.16458655017</v>
+        <v>1888.403254619665</v>
       </c>
       <c r="W41" t="n">
-        <v>1928.16458655017</v>
+        <v>1619.301750056763</v>
       </c>
       <c r="X41" t="n">
-        <v>1928.16458655017</v>
+        <v>1619.301750056763</v>
       </c>
       <c r="Y41" t="n">
-        <v>1928.16458655017</v>
+        <v>1619.301750056763</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G42" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H42" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I42" t="n">
-        <v>82.75272404474127</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J42" t="n">
-        <v>178.1789471685047</v>
+        <v>151.0252292810505</v>
       </c>
       <c r="K42" t="n">
-        <v>341.2775617522101</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L42" t="n">
-        <v>560.5837766791825</v>
+        <v>533.4300587917279</v>
       </c>
       <c r="M42" t="n">
-        <v>816.5037854930636</v>
+        <v>789.3500676056088</v>
       </c>
       <c r="N42" t="n">
-        <v>1079.197235426495</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O42" t="n">
-        <v>1319.510420784408</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P42" t="n">
-        <v>1512.382938418798</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.159390801712</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.6828592324678</v>
+        <v>521.6323966480187</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1211477156927</v>
+        <v>521.6323966480187</v>
       </c>
       <c r="D43" t="n">
-        <v>482.1211477156927</v>
+        <v>521.6323966480187</v>
       </c>
       <c r="E43" t="n">
-        <v>312.36314396643</v>
+        <v>521.6323966480187</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7046742333266</v>
+        <v>344.9253426097749</v>
       </c>
       <c r="G43" t="n">
-        <v>47.97737231912301</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H43" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I43" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J43" t="n">
-        <v>107.8447180416543</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K43" t="n">
-        <v>206.225157585688</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L43" t="n">
-        <v>750.3281307701692</v>
+        <v>617.0249490034938</v>
       </c>
       <c r="M43" t="n">
-        <v>1097.268456358639</v>
+        <v>749.7615623882961</v>
       </c>
       <c r="N43" t="n">
-        <v>1669.107692915714</v>
+        <v>1321.600798945371</v>
       </c>
       <c r="O43" t="n">
-        <v>2208.465445586772</v>
+        <v>1860.958551616429</v>
       </c>
       <c r="P43" t="n">
-        <v>2310.87963711211</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q43" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R43" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S43" t="n">
-        <v>2398.86861595615</v>
+        <v>2265.818153371701</v>
       </c>
       <c r="T43" t="n">
-        <v>2156.680690790836</v>
+        <v>2023.630228206387</v>
       </c>
       <c r="U43" t="n">
-        <v>1878.294815847212</v>
+        <v>1745.244353262763</v>
       </c>
       <c r="V43" t="n">
-        <v>1591.339307717643</v>
+        <v>1458.288845133193</v>
       </c>
       <c r="W43" t="n">
-        <v>1319.312903303934</v>
+        <v>1186.262440719485</v>
       </c>
       <c r="X43" t="n">
-        <v>1073.921148637347</v>
+        <v>940.8706860528976</v>
       </c>
       <c r="Y43" t="n">
-        <v>846.5014779514549</v>
+        <v>713.4510153670058</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>716.8538144688943</v>
+        <v>1768.090339433928</v>
       </c>
       <c r="C44" t="n">
-        <v>716.8538144688943</v>
+        <v>1329.947866617351</v>
       </c>
       <c r="D44" t="n">
-        <v>716.8538144688943</v>
+        <v>894.0380817917958</v>
       </c>
       <c r="E44" t="n">
         <v>716.8538144688943</v>
@@ -7642,58 +7642,58 @@
         <v>317.3820628238382</v>
       </c>
       <c r="H44" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I44" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521522</v>
       </c>
       <c r="J44" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472627</v>
       </c>
       <c r="K44" t="n">
-        <v>520.695846279055</v>
+        <v>520.6958462790544</v>
       </c>
       <c r="L44" t="n">
-        <v>818.5970719737415</v>
+        <v>818.5970719737411</v>
       </c>
       <c r="M44" t="n">
-        <v>1150.069584980171</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N44" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O44" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P44" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q44" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R44" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S44" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T44" t="n">
-        <v>2359.107284025647</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="U44" t="n">
-        <v>2100.039067721198</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="V44" t="n">
-        <v>1737.422117655025</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="W44" t="n">
-        <v>1332.566663066058</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="X44" t="n">
-        <v>1332.566663066058</v>
+        <v>1768.090339433928</v>
       </c>
       <c r="Y44" t="n">
-        <v>924.2805393657112</v>
+        <v>1768.090339433928</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G45" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H45" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I45" t="n">
-        <v>82.75272404474127</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J45" t="n">
-        <v>151.025229281049</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K45" t="n">
-        <v>314.1238438647545</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L45" t="n">
-        <v>533.4300587917268</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M45" t="n">
-        <v>789.3500676056079</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N45" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O45" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P45" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R45" t="n">
         <v>1676.870203416725</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.6828592324678</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="C46" t="n">
-        <v>482.1211477156927</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="D46" t="n">
-        <v>394.4424301066296</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="E46" t="n">
-        <v>224.6844263573668</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="F46" t="n">
-        <v>47.97737231912301</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G46" t="n">
-        <v>47.97737231912301</v>
+        <v>242.8759637174711</v>
       </c>
       <c r="H46" t="n">
-        <v>47.97737231912301</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I46" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J46" t="n">
-        <v>107.8447180416543</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K46" t="n">
-        <v>206.225157585688</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L46" t="n">
-        <v>750.3281307701692</v>
+        <v>756.5244501543716</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.548611335885</v>
+        <v>1348.744930720087</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.129044735315</v>
+        <v>1920.584167277162</v>
       </c>
       <c r="O46" t="n">
-        <v>1860.95855161643</v>
+        <v>2040.272670722438</v>
       </c>
       <c r="P46" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q46" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R46" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S46" t="n">
-        <v>2398.86861595615</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T46" t="n">
-        <v>2156.680690790836</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U46" t="n">
-        <v>1878.294815847212</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V46" t="n">
-        <v>1591.339307717643</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.312903303934</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X46" t="n">
-        <v>1073.921148637347</v>
+        <v>929.7364740804344</v>
       </c>
       <c r="Y46" t="n">
-        <v>846.5014779514549</v>
+        <v>702.3168033945426</v>
       </c>
     </row>
   </sheetData>
@@ -8850,13 +8850,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>87.22226426871208</v>
       </c>
       <c r="L13" t="n">
-        <v>103.9218983550206</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>201.1050060773673</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>201.1050060773671</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>111.5141040562718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>201.1050060773666</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>174.676491707793</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9573,13 +9573,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>63.70511254175562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>417.0260386927481</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>148.2375309151121</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9804,16 +9804,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>269.3764047094819</v>
       </c>
       <c r="N25" t="n">
-        <v>365.0854038885752</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>417.0260386927481</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>113.9026239190628</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>473.986106443441</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10041,13 +10041,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>365.0854038885755</v>
       </c>
       <c r="O28" t="n">
-        <v>324.8686180753107</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>417.0260386927476</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>505.6345337065352</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>82.25419665596837</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82.78507884101884</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10284,10 +10284,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>243.1305742148875</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>417.0260386927489</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>148.2375309151112</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>411.5481574537893</v>
       </c>
       <c r="M34" t="n">
-        <v>365.0854038885761</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>176.1506002510459</v>
+        <v>201.1050060773666</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10995,10 +10995,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>176.1506002510459</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>176.1506002510455</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>287.7845454558443</v>
       </c>
       <c r="M43" t="n">
-        <v>216.3673860643107</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>151.1593399808364</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>271.85959943014</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>251.1904456923704</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.5194549705165</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>189.6203553589771</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.0511437916807</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>46.05528973765388</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>55.94089737836987</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>278.8765814886815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>256.558712407827</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>77.41728243752088</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>262.6108224153393</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>365.9761810311265</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>56.52141187034039</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.5194549705165</v>
@@ -23791,7 +23791,7 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23910,7 +23910,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I19" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T19" t="n">
-        <v>219.0209262734315</v>
+        <v>76.27809846209007</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>43.62872208425858</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.5194549705165</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>253.1623499875611</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>73.0740136444194</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>203.3353493134958</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>266.5170467757457</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>75.84600190814325</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>37.32612048356111</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H26" t="n">
         <v>266.7106435996681</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>290.695322793131</v>
       </c>
     </row>
     <row r="27">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T29" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V29" t="n">
-        <v>74.26957565448458</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>55.95628795482202</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T32" t="n">
-        <v>15.90553956417162</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U32" t="n">
         <v>256.4775341414042</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>23.00213990948805</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>162.3850698015455</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H35" t="n">
         <v>266.7106435996681</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T35" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>187.2390907249092</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.41728243752041</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I37" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.7312654189215095</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>397.9394770290966</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>227.9427701197673</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.5194549705165</v>
@@ -25450,7 +25450,7 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>77.41728243752129</v>
       </c>
       <c r="G40" t="n">
         <v>163.0800288950615</v>
@@ -25569,7 +25569,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I40" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T40" t="n">
-        <v>77.41728243752033</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>87.5891364161202</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>134.3964105258034</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>76.27809846208898</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7428278113418</v>
+        <v>11.02286985273852</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>216.6841171322099</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>254.0245727436153</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>68.97012454816532</v>
       </c>
       <c r="D46" t="n">
-        <v>77.41728243752002</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>296873.5276734529</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>296873.5276734529</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>296873.5276734529</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>296873.5276734529</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>379557.7642567849</v>
+        <v>379557.764256785</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>379557.7642567849</v>
+        <v>379557.764256785</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>379557.7642567848</v>
+        <v>379557.7642567849</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>379557.7642567849</v>
+        <v>379557.764256785</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>296873.5276734529</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>296873.527673453</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>296873.527673453</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>296873.527673453</v>
+        <v>296873.5276734528</v>
       </c>
     </row>
   </sheetData>
@@ -26325,25 +26325,25 @@
         <v>278760.2955964219</v>
       </c>
       <c r="F2" t="n">
-        <v>278760.2955964219</v>
+        <v>278760.295596422</v>
       </c>
       <c r="G2" t="n">
-        <v>278760.2955964219</v>
+        <v>278760.295596422</v>
       </c>
       <c r="H2" t="n">
-        <v>278760.2955964219</v>
+        <v>278760.295596422</v>
       </c>
       <c r="I2" t="n">
+        <v>330991.8959469763</v>
+      </c>
+      <c r="J2" t="n">
         <v>330991.8959469764</v>
       </c>
-      <c r="J2" t="n">
-        <v>330991.8959469765</v>
-      </c>
       <c r="K2" t="n">
-        <v>330991.8959469764</v>
+        <v>330991.8959469763</v>
       </c>
       <c r="L2" t="n">
-        <v>330991.8959469764</v>
+        <v>330991.8959469763</v>
       </c>
       <c r="M2" t="n">
         <v>278760.2955964219</v>
@@ -26352,10 +26352,10 @@
         <v>278760.2955964219</v>
       </c>
       <c r="O2" t="n">
-        <v>278760.295596422</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="P2" t="n">
-        <v>278760.295596422</v>
+        <v>278760.2955964219</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560133.4314193972</v>
+        <v>560133.4314193971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39481.79578470912</v>
+        <v>39481.79578470919</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112452.1225892033</v>
+        <v>112452.1225892032</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>18586.89478745419</v>
       </c>
       <c r="F4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="G4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745418</v>
       </c>
       <c r="H4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745418</v>
       </c>
       <c r="I4" t="n">
-        <v>49130.88892893015</v>
+        <v>49130.88892893022</v>
       </c>
       <c r="J4" t="n">
-        <v>49130.88892893014</v>
+        <v>49130.88892893022</v>
       </c>
       <c r="K4" t="n">
-        <v>49130.88892893013</v>
+        <v>49130.8889289302</v>
       </c>
       <c r="L4" t="n">
         <v>49130.88892893019</v>
       </c>
       <c r="M4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745418</v>
       </c>
       <c r="N4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="O4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745418</v>
       </c>
       <c r="P4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745418</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="F5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="G5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="H5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="I5" t="n">
         <v>55830.09678221408</v>
@@ -26499,19 +26499,19 @@
         <v>55830.09678221408</v>
       </c>
       <c r="L5" t="n">
-        <v>55830.0967822141</v>
+        <v>55830.09678221408</v>
       </c>
       <c r="M5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="N5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="O5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="P5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.237466735</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.237466735</v>
+        <v>125571.3307492333</v>
       </c>
       <c r="D6" t="n">
-        <v>125603.237466735</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="E6" t="n">
-        <v>-346763.0359492815</v>
+        <v>-347306.9462615889</v>
       </c>
       <c r="F6" t="n">
-        <v>213370.3954701158</v>
+        <v>212826.4851578083</v>
       </c>
       <c r="G6" t="n">
-        <v>213370.3954701158</v>
+        <v>212826.4851578082</v>
       </c>
       <c r="H6" t="n">
-        <v>213370.3954701158</v>
+        <v>212826.4851578082</v>
       </c>
       <c r="I6" t="n">
-        <v>186549.1144511231</v>
+        <v>186154.4372826739</v>
       </c>
       <c r="J6" t="n">
-        <v>226030.9102358323</v>
+        <v>225636.2330673831</v>
       </c>
       <c r="K6" t="n">
-        <v>226030.9102358322</v>
+        <v>225636.2330673831</v>
       </c>
       <c r="L6" t="n">
-        <v>226030.9102358321</v>
+        <v>225636.2330673831</v>
       </c>
       <c r="M6" t="n">
-        <v>100918.2728809125</v>
+        <v>100374.3625686049</v>
       </c>
       <c r="N6" t="n">
-        <v>213370.3954701158</v>
+        <v>212826.4851578082</v>
       </c>
       <c r="O6" t="n">
-        <v>213370.3954701159</v>
+        <v>212826.4851578081</v>
       </c>
       <c r="P6" t="n">
-        <v>213370.3954701159</v>
+        <v>212826.4851578081</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="G3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="H3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="I3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="J3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="N3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="P3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="G4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="H4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="I4" t="n">
         <v>748.189052728547</v>
@@ -26816,22 +26816,22 @@
         <v>748.189052728547</v>
       </c>
       <c r="K4" t="n">
-        <v>748.1890527285469</v>
+        <v>748.189052728547</v>
       </c>
       <c r="L4" t="n">
-        <v>748.1890527285472</v>
+        <v>748.189052728547</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="N4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="O4" t="n">
-        <v>599.7171539890376</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="P4" t="n">
-        <v>599.7171539890376</v>
+        <v>599.7171539890372</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.4718987395096</v>
+        <v>148.4718987395098</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2452552495278</v>
+        <v>451.2452552495274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H11" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I11" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J11" t="n">
         <v>161.8388735304147</v>
@@ -31773,7 +31773,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O11" t="n">
         <v>321.2775387271996</v>
@@ -31788,10 +31788,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S11" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T11" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U11" t="n">
         <v>0.1525455147490615</v>
@@ -31834,13 +31834,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H12" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I12" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K12" t="n">
         <v>164.7460753370761</v>
@@ -31849,28 +31849,28 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706187</v>
       </c>
       <c r="P12" t="n">
-        <v>167.3927270171068</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225946</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34425516667982</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S12" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T12" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U12" t="n">
         <v>0.06712092593248073</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I13" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K13" t="n">
         <v>99.37418135760976</v>
@@ -31949,10 +31949,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T13" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H14" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I14" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J14" t="n">
         <v>161.8388735304147</v>
@@ -32010,7 +32010,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O14" t="n">
         <v>321.2775387271996</v>
@@ -32025,10 +32025,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S14" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T14" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U14" t="n">
         <v>0.1525455147490615</v>
@@ -32071,13 +32071,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H15" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I15" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K15" t="n">
         <v>164.7460753370761</v>
@@ -32086,10 +32086,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N15" t="n">
-        <v>265.3469191246783</v>
+        <v>237.9189212585624</v>
       </c>
       <c r="O15" t="n">
         <v>242.7405912706187</v>
@@ -32101,13 +32101,13 @@
         <v>130.2324952225946</v>
       </c>
       <c r="R15" t="n">
-        <v>35.91625730056398</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S15" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T15" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U15" t="n">
         <v>0.06712092593248073</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H16" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I16" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J16" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K16" t="n">
         <v>99.37418135760976</v>
@@ -32186,10 +32186,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T16" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H17" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I17" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K17" t="n">
         <v>242.5545190220119</v>
@@ -32244,28 +32244,28 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O17" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R17" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S17" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T17" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U17" t="n">
         <v>0.1525455147490615</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H18" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I18" t="n">
-        <v>7.698620038548768</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
@@ -32323,31 +32323,31 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706187</v>
+        <v>215.3125934045031</v>
       </c>
       <c r="P18" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R18" t="n">
-        <v>63.34425516667982</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S18" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T18" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H19" t="n">
-        <v>7.604690873845262</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I19" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L19" t="n">
         <v>127.1647388045658</v>
@@ -32414,7 +32414,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R19" t="n">
         <v>38.45889679145053</v>
@@ -32423,10 +32423,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T19" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I20" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K20" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271994</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R20" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S20" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680303</v>
       </c>
       <c r="T20" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175213</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H21" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888166</v>
       </c>
       <c r="I21" t="n">
-        <v>7.698620038548668</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J21" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P21" t="n">
-        <v>194.8207248832231</v>
+        <v>167.3927270171077</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R21" t="n">
-        <v>63.34425516667982</v>
+        <v>63.34425516667979</v>
       </c>
       <c r="S21" t="n">
-        <v>18.95047475493704</v>
+        <v>18.95047475493703</v>
       </c>
       <c r="T21" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463315</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.855333329369098</v>
       </c>
       <c r="H22" t="n">
-        <v>7.604690873845263</v>
+        <v>7.604690873845259</v>
       </c>
       <c r="I22" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L22" t="n">
-        <v>127.1647388045658</v>
+        <v>127.1647388045657</v>
       </c>
       <c r="M22" t="n">
         <v>134.077387257376</v>
@@ -32648,22 +32648,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P22" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835238</v>
       </c>
       <c r="R22" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S22" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T22" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667963</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.04665454523831449</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H23" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I23" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K23" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L23" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R23" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S23" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T23" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H24" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038548995</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O24" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P24" t="n">
-        <v>194.8207248832231</v>
+        <v>167.3927270171075</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R24" t="n">
-        <v>63.34425516667982</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S24" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T24" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H25" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I25" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K25" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L25" t="n">
         <v>127.1647388045658</v>
@@ -32885,22 +32885,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R25" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S25" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T25" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H26" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I26" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K26" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L26" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R26" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S26" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T26" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H27" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I27" t="n">
-        <v>7.698620038548995</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045033</v>
       </c>
       <c r="P27" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34425516667982</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S27" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T27" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H28" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I28" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L28" t="n">
         <v>127.1647388045658</v>
@@ -33122,22 +33122,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P28" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R28" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S28" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T28" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H29" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I29" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K29" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L29" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R29" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S29" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T29" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H30" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I30" t="n">
-        <v>7.698620038549002</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743782</v>
+        <v>68.96212650132232</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P30" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>63.34425516667982</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S30" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T30" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H31" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I31" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L31" t="n">
         <v>127.1647388045658</v>
@@ -33359,22 +33359,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P31" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R31" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S31" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T31" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H32" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I32" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K32" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L32" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P32" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R32" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T32" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H33" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I33" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>68.96212650132189</v>
+        <v>68.96212650132232</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P33" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34425516667982</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S33" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T33" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H34" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I34" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L34" t="n">
         <v>127.1647388045658</v>
@@ -33596,22 +33596,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P34" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R34" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S34" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T34" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H35" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I35" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K35" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L35" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N35" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P35" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R35" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S35" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T35" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H36" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I36" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P36" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.8044973564786</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667982</v>
+        <v>35.91625730056421</v>
       </c>
       <c r="S36" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T36" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H37" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I37" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L37" t="n">
         <v>127.1647388045658</v>
@@ -33833,22 +33833,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R37" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S37" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T37" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H38" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I38" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K38" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L38" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R38" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S38" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T38" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H39" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I39" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O39" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P39" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
-        <v>35.91625730056398</v>
+        <v>35.91625730056421</v>
       </c>
       <c r="S39" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T39" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06712092593248074</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H40" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I40" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L40" t="n">
         <v>127.1647388045658</v>
@@ -34070,22 +34070,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835242</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R40" t="n">
-        <v>38.45889679145054</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S40" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T40" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H41" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I41" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J41" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K41" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L41" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P41" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R41" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S41" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T41" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H42" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743783</v>
+        <v>68.96212650132247</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P42" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.8044973564781</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R42" t="n">
-        <v>63.34425516667984</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S42" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T42" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H43" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I43" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L43" t="n">
         <v>127.1647388045658</v>
@@ -34304,25 +34304,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P43" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R43" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S43" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T43" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H44" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I44" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K44" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L44" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R44" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S44" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T44" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H45" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I45" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J45" t="n">
-        <v>68.96212650132097</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L45" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P45" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667984</v>
+        <v>35.91625730056421</v>
       </c>
       <c r="S45" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T45" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H46" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I46" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L46" t="n">
         <v>127.1647388045658</v>
@@ -34541,25 +34541,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P46" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R46" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S46" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T46" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,22 +35406,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J11" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L11" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O11" t="n">
         <v>321.2775387271995</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K12" t="n">
         <v>164.7460753370761</v>
@@ -35497,19 +35497,19 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P12" t="n">
-        <v>167.3927270171068</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225947</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R12" t="n">
         <v>63.34425516667989</v>
@@ -35570,13 +35570,13 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K13" t="n">
-        <v>376.9079738537064</v>
+        <v>186.5964456263218</v>
       </c>
       <c r="L13" t="n">
-        <v>231.0866371595864</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M13" t="n">
-        <v>134.077387257376</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N13" t="n">
         <v>577.615390461692</v>
@@ -35588,7 +35588,7 @@
         <v>103.4486783084226</v>
       </c>
       <c r="Q13" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R13" t="n">
         <v>17.2552537097687</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304152</v>
       </c>
       <c r="K14" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N14" t="n">
         <v>340.2384695057744</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P14" t="n">
         <v>274.2029462851062</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K15" t="n">
         <v>164.7460753370761</v>
@@ -35734,10 +35734,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N15" t="n">
-        <v>265.3469191246782</v>
+        <v>237.9189212585624</v>
       </c>
       <c r="O15" t="n">
         <v>242.7405912706188</v>
@@ -35749,7 +35749,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R15" t="n">
-        <v>35.91625730056398</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K16" t="n">
-        <v>376.9079738537064</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L16" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M16" t="n">
-        <v>335.1823933347432</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8974782275523</v>
+        <v>322.0024843049193</v>
       </c>
       <c r="P16" t="n">
         <v>454.4657429249294</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K17" t="n">
         <v>242.554519022012</v>
@@ -35895,13 +35895,13 @@
         <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O17" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q17" t="n">
         <v>205.9149931982215</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
@@ -35974,16 +35974,16 @@
         <v>258.5050594079606</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045031</v>
       </c>
       <c r="P18" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R18" t="n">
         <v>63.34425516667989</v>
@@ -36044,28 +36044,28 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K19" t="n">
-        <v>210.8882854138816</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L19" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M19" t="n">
-        <v>598.2025056219346</v>
+        <v>335.1823933347425</v>
       </c>
       <c r="N19" t="n">
         <v>130.8893266660912</v>
       </c>
       <c r="O19" t="n">
-        <v>544.8058107788465</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P19" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R19" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790859</v>
       </c>
       <c r="J20" t="n">
         <v>161.8388735304147</v>
@@ -36126,19 +36126,19 @@
         <v>242.554519022012</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057744</v>
+        <v>340.238469505774</v>
       </c>
       <c r="O20" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q20" t="n">
         <v>205.9149931982215</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.698620038548668</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J21" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191637</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P21" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171077</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R21" t="n">
         <v>63.34425516667989</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639526</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760979</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L22" t="n">
-        <v>301.8412305123588</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M22" t="n">
         <v>598.2025056219347</v>
       </c>
       <c r="N22" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O22" t="n">
-        <v>544.8058107788465</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P22" t="n">
-        <v>103.4486783084226</v>
+        <v>167.1537908501782</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R22" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J23" t="n">
-        <v>578.8649122231628</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K23" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L23" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q23" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R23" t="n">
-        <v>290.6419065554514</v>
+        <v>268.0167458008091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038548995</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O24" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P24" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171075</v>
       </c>
       <c r="Q24" t="n">
         <v>130.2324952225945</v>
@@ -36524,22 +36524,22 @@
         <v>549.5989628126072</v>
       </c>
       <c r="M25" t="n">
-        <v>134.0773872573759</v>
+        <v>403.4537919668578</v>
       </c>
       <c r="N25" t="n">
-        <v>495.9747305546666</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O25" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P25" t="n">
-        <v>454.4657429249296</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q25" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R25" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J26" t="n">
-        <v>578.8649122231628</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K26" t="n">
-        <v>242.554519022012</v>
+        <v>356.4571429410746</v>
       </c>
       <c r="L26" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O26" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851065</v>
+        <v>748.189052728547</v>
       </c>
       <c r="Q26" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R26" t="n">
-        <v>290.6419065554514</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.698620038548995</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045033</v>
       </c>
       <c r="P27" t="n">
         <v>194.820724883223</v>
@@ -36761,13 +36761,13 @@
         <v>549.5989628126072</v>
       </c>
       <c r="M28" t="n">
-        <v>598.2025056219347</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N28" t="n">
-        <v>130.8893266660914</v>
+        <v>495.9747305546666</v>
       </c>
       <c r="O28" t="n">
-        <v>445.7660963028629</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P28" t="n">
         <v>454.4657429249296</v>
@@ -36776,7 +36776,7 @@
         <v>241.5141944805064</v>
       </c>
       <c r="R28" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J29" t="n">
-        <v>578.8649122231624</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K29" t="n">
-        <v>242.554519022012</v>
+        <v>748.189052728547</v>
       </c>
       <c r="L29" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271997</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.9149931982215</v>
+        <v>288.1691898541899</v>
       </c>
       <c r="R29" t="n">
-        <v>290.6419065554514</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.698620038549002</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743782</v>
+        <v>68.96212650132232</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
         <v>242.7405912706188</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K31" t="n">
-        <v>182.1592601986286</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L31" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M31" t="n">
         <v>598.2025056219347</v>
       </c>
       <c r="N31" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O31" t="n">
-        <v>544.8058107788465</v>
+        <v>364.0280524424397</v>
       </c>
       <c r="P31" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249296</v>
       </c>
       <c r="Q31" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R31" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J32" t="n">
-        <v>601.4900729778066</v>
+        <v>578.8649122231635</v>
       </c>
       <c r="K32" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L32" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M32" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O32" t="n">
         <v>321.2775387271995</v>
@@ -37092,7 +37092,7 @@
         <v>205.9149931982215</v>
       </c>
       <c r="R32" t="n">
-        <v>268.0167458008082</v>
+        <v>290.6419065554514</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>68.96212650132189</v>
+        <v>68.96212650132232</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
         <v>242.7405912706188</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K34" t="n">
-        <v>376.9079738537064</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L34" t="n">
-        <v>549.5989628126072</v>
+        <v>538.7128962583549</v>
       </c>
       <c r="M34" t="n">
-        <v>499.162791145952</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N34" t="n">
-        <v>130.8893266660914</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O34" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P34" t="n">
-        <v>454.4657429249296</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q34" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R34" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304145</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L35" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N35" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O35" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P35" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q35" t="n">
         <v>205.9149931982215</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.12661790466491</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
         <v>258.5050594079606</v>
@@ -37405,10 +37405,10 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.8044973564786</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639526</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760979</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L37" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M37" t="n">
-        <v>598.2025056219348</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N37" t="n">
-        <v>577.615390461692</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O37" t="n">
-        <v>297.048078478598</v>
+        <v>322.0024843049189</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R37" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J38" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L38" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O38" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q38" t="n">
         <v>205.9149931982215</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.12661790466491</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743782</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
         <v>258.5050594079606</v>
@@ -37645,7 +37645,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
-        <v>35.91625730056398</v>
+        <v>35.91625730056421</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L40" t="n">
         <v>549.5989628126073</v>
       </c>
       <c r="M40" t="n">
-        <v>598.2025056219348</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N40" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O40" t="n">
-        <v>297.048078478598</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084226</v>
+        <v>279.5992785594681</v>
       </c>
       <c r="Q40" t="n">
         <v>71.62250269835249</v>
       </c>
       <c r="R40" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J41" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L41" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O41" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P41" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q41" t="n">
         <v>205.9149931982215</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466492</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743783</v>
+        <v>68.96212650132247</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P42" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.8044973564781</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R42" t="n">
         <v>63.34425516667989</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760977</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L43" t="n">
-        <v>549.5989628126073</v>
+        <v>414.9492842604101</v>
       </c>
       <c r="M43" t="n">
-        <v>350.4447733216867</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N43" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616918</v>
       </c>
       <c r="O43" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P43" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q43" t="n">
         <v>71.62250269835249</v>
       </c>
       <c r="R43" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K44" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845319</v>
+        <v>300.910328984532</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O44" t="n">
         <v>321.2775387271997</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q44" t="n">
         <v>205.9149931982215</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.12661790466492</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J45" t="n">
-        <v>68.96212650132097</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L45" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P45" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056421</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760977</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L46" t="n">
-        <v>549.5989628126073</v>
+        <v>278.3240787854022</v>
       </c>
       <c r="M46" t="n">
-        <v>598.2025056219348</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N46" t="n">
-        <v>130.8893266660914</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O46" t="n">
-        <v>392.7570776576922</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P46" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R46" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
